--- a/vQi distributions/vQi week blocks 26473818 to 26689818.xlsx
+++ b/vQi distributions/vQi week blocks 26473818 to 26689818.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Noah/Dropbox/My Mac (Noahs-MacBook-Pro.local)/Desktop/projects/GotchiToys/gotchi-vault-public/vQi distributions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90A612C-8371-F04E-8300-D5F4E8A320EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9CDD7E-E199-CF4C-9BF6-2D1B979A6A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{C3642507-F6A1-AD46-AFDF-1D166CFD13FC}"/>
+    <workbookView xWindow="8600" yWindow="1940" windowWidth="27240" windowHeight="15940" xr2:uid="{C3642507-F6A1-AD46-AFDF-1D166CFD13FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1260,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC76E0D3-CDFD-D340-8681-0E5E88FE7E35}">
   <dimension ref="A1:O262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vQi distributions/vQi week blocks 26473818 to 26689818.xlsx
+++ b/vQi distributions/vQi week blocks 26473818 to 26689818.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Noah/Dropbox/My Mac (Noahs-MacBook-Pro.local)/Desktop/projects/GotchiToys/gotchi-vault-public/vQi distributions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9CDD7E-E199-CF4C-9BF6-2D1B979A6A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD3CF4E-A5A0-334C-86B7-23637607D454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="1940" windowWidth="27240" windowHeight="15940" xr2:uid="{C3642507-F6A1-AD46-AFDF-1D166CFD13FC}"/>
+    <workbookView xWindow="1560" yWindow="1940" windowWidth="27240" windowHeight="15940" xr2:uid="{C3642507-F6A1-AD46-AFDF-1D166CFD13FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1261,7 +1261,7 @@
   <dimension ref="A1:O262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/vQi distributions/vQi week blocks 26473818 to 26689818.xlsx
+++ b/vQi distributions/vQi week blocks 26473818 to 26689818.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Noah/Dropbox/My Mac (Noahs-MacBook-Pro.local)/Desktop/projects/GotchiToys/gotchi-vault-public/vQi distributions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD3CF4E-A5A0-334C-86B7-23637607D454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4795B24-67B6-E84E-919D-086140F8429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1940" windowWidth="27240" windowHeight="15940" xr2:uid="{C3642507-F6A1-AD46-AFDF-1D166CFD13FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="273">
   <si>
     <t>Wallet</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>90% distributed:</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -922,28 +928,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87C48F21-FFB8-514B-9CE7-7D6016217032}" name="Table1" displayName="Table1" ref="B1:H221" totalsRowShown="0">
-  <autoFilter ref="B1:H221" xr:uid="{87C48F21-FFB8-514B-9CE7-7D6016217032}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87C48F21-FFB8-514B-9CE7-7D6016217032}" name="Table1" displayName="Table1" ref="B1:I221" totalsRowShown="0">
+  <autoFilter ref="B1:I221" xr:uid="{87C48F21-FFB8-514B-9CE7-7D6016217032}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H221">
     <sortCondition descending="1" ref="H1:H221"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{035ADB8A-69FF-6941-B291-9B68F521EC81}" name="Wallet"/>
     <tableColumn id="2" xr3:uid="{B455DAD8-0174-AB4A-8AC9-CDFA33B33915}" name="Balance 26473818"/>
-    <tableColumn id="3" xr3:uid="{85E20F12-A047-E64F-B991-053D3A5DC868}" name="Balance 26689818" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{85E20F12-A047-E64F-B991-053D3A5DC868}" name="Balance 26689818" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Table1[[#This Row],[Wallet]],N:O,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AA53F04A-AFA6-3844-BCD3-6EA6A1F98954}" name="Eligible?" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{AA53F04A-AFA6-3844-BCD3-6EA6A1F98954}" name="Eligible?" dataDxfId="4">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Balance 26689818]]&gt;=Table1[[#This Row],[Balance 26473818]],"yes","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{52929740-8348-8647-AC07-CD53D60EB395}" name="Amt eligible" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{52929740-8348-8647-AC07-CD53D60EB395}" name="Amt eligible" dataDxfId="3">
       <calculatedColumnFormula>IF(Table1[[#This Row],[Eligible?]]="yes",Table1[[#This Row],[Balance 26473818]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{229D7733-080B-3C4D-8C39-33CE69962A87}" name="% total" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{229D7733-080B-3C4D-8C39-33CE69962A87}" name="% total" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Amt eligible]]/$F$224</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{264E2BB2-CD96-A049-9C5F-26FB26F79382}" name="Qi distributed" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{264E2BB2-CD96-A049-9C5F-26FB26F79382}" name="Qi distributed" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[% total]]*$K$6</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{2280B3E4-9EFE-834C-8462-3378D1AAE500}" name="Column1" dataDxfId="0">
+      <calculatedColumnFormula>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1261,7 +1270,7 @@
   <dimension ref="A1:O262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1293,6 +1302,9 @@
       <c r="H1" t="s">
         <v>268</v>
       </c>
+      <c r="I1" t="s">
+        <v>272</v>
+      </c>
       <c r="N1" t="s">
         <v>0</v>
       </c>
@@ -1330,6 +1342,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>254.90382880521341</v>
       </c>
+      <c r="I2" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="M2">
         <v>26689818</v>
       </c>
@@ -1367,6 +1383,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>107.71196380335759</v>
       </c>
+      <c r="I3" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N3" t="s">
         <v>8</v>
       </c>
@@ -1401,6 +1421,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>41.776589024984105</v>
       </c>
+      <c r="I4" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="J4" t="s">
         <v>269</v>
       </c>
@@ -1441,6 +1465,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>41.753063219349251</v>
       </c>
+      <c r="I5" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="J5" t="s">
         <v>270</v>
       </c>
@@ -1481,6 +1509,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>40.967496844322163</v>
       </c>
+      <c r="I6" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="J6" t="s">
         <v>271</v>
       </c>
@@ -1521,6 +1553,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>40.959755018181617</v>
       </c>
+      <c r="I7" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N7" t="s">
         <v>6</v>
       </c>
@@ -1555,6 +1591,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>29.193658296842557</v>
       </c>
+      <c r="I8" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N8" t="s">
         <v>7</v>
       </c>
@@ -1589,6 +1629,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>20.876531609674625</v>
       </c>
+      <c r="I9" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N9" t="s">
         <v>9</v>
       </c>
@@ -1623,6 +1667,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>17.335874727858577</v>
       </c>
+      <c r="I10" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N10" t="s">
         <v>45</v>
       </c>
@@ -1657,6 +1705,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>12.903032632801938</v>
       </c>
+      <c r="I11" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N11" t="s">
         <v>10</v>
       </c>
@@ -1691,6 +1743,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.6978317722284961</v>
       </c>
+      <c r="I12" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N12" t="s">
         <v>222</v>
       </c>
@@ -1725,6 +1781,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.8533760686171572</v>
       </c>
+      <c r="I13" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N13" t="s">
         <v>14</v>
       </c>
@@ -1759,6 +1819,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.2579868402293437</v>
       </c>
+      <c r="I14" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N14" t="s">
         <v>11</v>
       </c>
@@ -1793,6 +1857,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.1753063219349249</v>
       </c>
+      <c r="I15" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N15" t="s">
         <v>223</v>
       </c>
@@ -1827,6 +1895,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.1753063219349249</v>
       </c>
+      <c r="I16" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N16" t="s">
         <v>12</v>
       </c>
@@ -1861,6 +1933,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.9581903931943092</v>
       </c>
+      <c r="I17" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N17" t="s">
         <v>13</v>
       </c>
@@ -1895,6 +1971,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.7892574994088219</v>
       </c>
+      <c r="I18" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N18" t="s">
         <v>29</v>
       </c>
@@ -1929,6 +2009,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.3716342164324571</v>
       </c>
+      <c r="I19" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N19" t="s">
         <v>16</v>
       </c>
@@ -1963,6 +2047,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.3641695627726271</v>
       </c>
+      <c r="I20" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N20" t="s">
         <v>15</v>
       </c>
@@ -1997,6 +2085,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.123719099590613</v>
       </c>
+      <c r="I21" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N21" t="s">
         <v>224</v>
       </c>
@@ -2031,6 +2123,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.9693525969704604</v>
       </c>
+      <c r="I22" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N22" t="s">
         <v>219</v>
       </c>
@@ -2065,6 +2161,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.9321506176420202</v>
       </c>
+      <c r="I23" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N23" t="s">
         <v>17</v>
       </c>
@@ -2099,6 +2199,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.7220492035222552</v>
       </c>
+      <c r="I24" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N24" t="s">
         <v>18</v>
       </c>
@@ -2133,6 +2237,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.6521963287562835</v>
       </c>
+      <c r="I25" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N25" t="s">
         <v>19</v>
       </c>
@@ -2167,6 +2275,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.6451689958732887</v>
       </c>
+      <c r="I26" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N26" t="s">
         <v>42</v>
       </c>
@@ -2201,6 +2313,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.563638081668044</v>
       </c>
+      <c r="I27" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N27" t="s">
         <v>21</v>
       </c>
@@ -2235,6 +2351,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.0876531609674625</v>
       </c>
+      <c r="I28" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N28" t="s">
         <v>225</v>
       </c>
@@ -2269,6 +2389,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.0476954794665452</v>
       </c>
+      <c r="I29" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N29" t="s">
         <v>22</v>
       </c>
@@ -2303,6 +2427,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.825068146380975</v>
       </c>
+      <c r="I30" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N30" t="s">
         <v>37</v>
       </c>
@@ -2337,6 +2465,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.7192241311199246</v>
       </c>
+      <c r="I31" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N31" t="s">
         <v>23</v>
       </c>
@@ -2371,6 +2503,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.7154663554301834</v>
       </c>
+      <c r="I32" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N32" t="s">
         <v>30</v>
       </c>
@@ -2405,6 +2541,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.5573892580817272</v>
       </c>
+      <c r="I33" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061614</v>
+      </c>
       <c r="N33" t="s">
         <v>24</v>
       </c>
@@ -2439,6 +2579,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.5537567415816438</v>
       </c>
+      <c r="I34" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N34" t="s">
         <v>25</v>
       </c>
@@ -2473,6 +2617,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.5423581553227612</v>
       </c>
+      <c r="I35" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N35" t="s">
         <v>31</v>
       </c>
@@ -2507,6 +2655,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.5423581553227612</v>
       </c>
+      <c r="I36" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N36" t="s">
         <v>27</v>
       </c>
@@ -2541,6 +2693,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.5170140459486161</v>
       </c>
+      <c r="I37" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N37" t="s">
         <v>28</v>
       </c>
@@ -2575,6 +2731,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.4646422219010813</v>
       </c>
+      <c r="I38" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N38" t="s">
         <v>44</v>
       </c>
@@ -2609,6 +2769,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.3615673915829791</v>
       </c>
+      <c r="I39" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N39" t="s">
         <v>34</v>
       </c>
@@ -2643,6 +2807,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.2525918965804774</v>
       </c>
+      <c r="I40" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N40" t="s">
         <v>36</v>
       </c>
@@ -2677,6 +2845,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.1039693033275424</v>
       </c>
+      <c r="I41" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N41" t="s">
         <v>226</v>
       </c>
@@ -2711,6 +2883,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.0772290310592105</v>
       </c>
+      <c r="I42" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N42" t="s">
         <v>32</v>
       </c>
@@ -2745,6 +2921,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.0438265804837312</v>
       </c>
+      <c r="I43" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N43" t="s">
         <v>38</v>
       </c>
@@ -2779,6 +2959,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.99196927596529949</v>
       </c>
+      <c r="I44" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N44" t="s">
         <v>206</v>
       </c>
@@ -2813,6 +2997,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.94992394130341473</v>
       </c>
+      <c r="I45" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N45" t="s">
         <v>33</v>
       </c>
@@ -2847,6 +3035,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.8726390212843993</v>
       </c>
+      <c r="I46" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N46" t="s">
         <v>39</v>
       </c>
@@ -2881,6 +3073,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.87078845235228697</v>
       </c>
+      <c r="I47" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N47" t="s">
         <v>47</v>
       </c>
@@ -2915,6 +3111,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.8674005688907237</v>
       </c>
+      <c r="I48" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N48" t="s">
         <v>48</v>
       </c>
@@ -2949,6 +3149,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.82671065174311509</v>
       </c>
+      <c r="I49" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N49" t="s">
         <v>43</v>
       </c>
@@ -2983,6 +3187,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.81038520402434955</v>
       </c>
+      <c r="I50" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N50" t="s">
         <v>35</v>
       </c>
@@ -3017,6 +3225,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.79744327051793018</v>
       </c>
+      <c r="I51" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N51" t="s">
         <v>53</v>
       </c>
@@ -3051,6 +3263,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.74746333775279028</v>
       </c>
+      <c r="I52" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N52" t="s">
         <v>40</v>
       </c>
@@ -3085,6 +3301,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.72650330001667696</v>
       </c>
+      <c r="I53" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N53" t="s">
         <v>227</v>
       </c>
@@ -3119,6 +3339,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.68057493047539275</v>
       </c>
+      <c r="I54" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N54" t="s">
         <v>41</v>
       </c>
@@ -3153,6 +3377,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.6204922725027493</v>
       </c>
+      <c r="I55" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N55" t="s">
         <v>49</v>
       </c>
@@ -3187,6 +3415,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.56675904336435579</v>
       </c>
+      <c r="I56" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N56" t="s">
         <v>46</v>
       </c>
@@ -3221,6 +3453,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.51356267759799579</v>
       </c>
+      <c r="I57" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N57" t="s">
         <v>56</v>
       </c>
@@ -3255,6 +3491,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.4885108396663862</v>
       </c>
+      <c r="I58" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N58" t="s">
         <v>228</v>
       </c>
@@ -3289,6 +3529,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.48546286605137368</v>
       </c>
+      <c r="I59" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N59" t="s">
         <v>50</v>
       </c>
@@ -3323,6 +3567,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.42483741825687865</v>
       </c>
+      <c r="I60" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N60" t="s">
         <v>100</v>
       </c>
@@ -3357,6 +3605,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.41861621183719561</v>
       </c>
+      <c r="I61" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N61" t="s">
         <v>61</v>
       </c>
@@ -3391,6 +3643,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.41753063219349246</v>
       </c>
+      <c r="I62" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N62" t="s">
         <v>51</v>
       </c>
@@ -3425,6 +3681,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.37202813352679892</v>
       </c>
+      <c r="I63" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N63" t="s">
         <v>229</v>
       </c>
@@ -3459,6 +3719,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.36675890731876376</v>
       </c>
+      <c r="I64" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N64" t="s">
         <v>64</v>
       </c>
@@ -3493,6 +3757,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.36563157461184137</v>
       </c>
+      <c r="I65" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N65" t="s">
         <v>85</v>
       </c>
@@ -3527,6 +3795,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.3396611692894061</v>
       </c>
+      <c r="I66" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N66" t="s">
         <v>58</v>
       </c>
@@ -3561,6 +3833,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.33343996286972311</v>
       </c>
+      <c r="I67" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N67" t="s">
         <v>60</v>
       </c>
@@ -3595,6 +3871,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.32976569330642042</v>
       </c>
+      <c r="I68" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N68" t="s">
         <v>52</v>
       </c>
@@ -3629,6 +3909,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.32796982109384226</v>
       </c>
+      <c r="I69" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N69" t="s">
         <v>101</v>
       </c>
@@ -3663,6 +3947,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.31314797414511936</v>
       </c>
+      <c r="I70" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N70" t="s">
         <v>54</v>
       </c>
@@ -3697,6 +3985,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.30425457167939796</v>
       </c>
+      <c r="I71" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N71" t="s">
         <v>55</v>
       </c>
@@ -3731,6 +4023,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.27548671112126638</v>
       </c>
+      <c r="I72" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N72" t="s">
         <v>57</v>
       </c>
@@ -3765,6 +4061,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.2747769090465374</v>
       </c>
+      <c r="I73" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N73" t="s">
         <v>59</v>
       </c>
@@ -3799,6 +4099,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.26876446794295111</v>
       </c>
+      <c r="I74" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N74" t="s">
         <v>62</v>
       </c>
@@ -3833,6 +4137,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.26613402496013211</v>
       </c>
+      <c r="I75" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N75" t="s">
         <v>63</v>
       </c>
@@ -3867,6 +4175,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.25072714463219226</v>
       </c>
+      <c r="I76" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N76" t="s">
         <v>230</v>
       </c>
@@ -3901,6 +4213,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.24709462813210886</v>
       </c>
+      <c r="I77" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N77" t="s">
         <v>231</v>
       </c>
@@ -3935,6 +4251,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.2375673306605913</v>
       </c>
+      <c r="I78" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N78" t="s">
         <v>65</v>
       </c>
@@ -3969,6 +4289,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.23686512764336828</v>
       </c>
+      <c r="I79" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N79" t="s">
         <v>66</v>
       </c>
@@ -4003,6 +4327,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.22993411914895631</v>
       </c>
+      <c r="I80" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N80" t="s">
         <v>232</v>
       </c>
@@ -4037,6 +4365,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.22661472302095312</v>
       </c>
+      <c r="I81" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N81" t="s">
         <v>72</v>
       </c>
@@ -4071,6 +4403,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.22546654138448594</v>
       </c>
+      <c r="I82" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N82" t="s">
         <v>67</v>
       </c>
@@ -4105,6 +4441,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.2118550427749781</v>
       </c>
+      <c r="I83" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N83" t="s">
         <v>233</v>
       </c>
@@ -4139,6 +4479,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.20726220582084964</v>
       </c>
+      <c r="I84" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N84" t="s">
         <v>68</v>
       </c>
@@ -4173,6 +4517,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.20621837924036593</v>
       </c>
+      <c r="I85" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N85" t="s">
         <v>234</v>
       </c>
@@ -4207,6 +4555,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.20504929347022416</v>
       </c>
+      <c r="I86" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N86" t="s">
         <v>70</v>
       </c>
@@ -4241,6 +4593,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.19477803991826426</v>
       </c>
+      <c r="I87" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N87" t="s">
         <v>235</v>
       </c>
@@ -4275,6 +4631,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.19131253567105827</v>
       </c>
+      <c r="I88" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N88" t="s">
         <v>81</v>
       </c>
@@ -4309,6 +4669,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.19097851116530346</v>
       </c>
+      <c r="I89" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N89" t="s">
         <v>115</v>
       </c>
@@ -4343,6 +4707,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.1837134781651367</v>
       </c>
+      <c r="I90" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N90" t="s">
         <v>76</v>
       </c>
@@ -4377,6 +4745,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.17137753563697994</v>
       </c>
+      <c r="I91" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N91" t="s">
         <v>71</v>
       </c>
@@ -4411,6 +4783,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.16734627738315178</v>
       </c>
+      <c r="I92" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N92" t="s">
         <v>105</v>
       </c>
@@ -4445,6 +4821,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.16701225287739699</v>
       </c>
+      <c r="I93" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N93" t="s">
         <v>92</v>
       </c>
@@ -4479,6 +4859,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.15987247906688826</v>
       </c>
+      <c r="I94" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N94" t="s">
         <v>236</v>
       </c>
@@ -4513,6 +4897,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.14692485416256809</v>
       </c>
+      <c r="I95" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N95" t="s">
         <v>73</v>
       </c>
@@ -4547,6 +4935,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.13730106536195061</v>
       </c>
+      <c r="I96" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N96" t="s">
         <v>98</v>
       </c>
@@ -4581,6 +4973,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.12755560813511196</v>
       </c>
+      <c r="I97" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N97" t="s">
         <v>74</v>
       </c>
@@ -4615,6 +5011,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.12525918965804775</v>
       </c>
+      <c r="I98" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N98" t="s">
         <v>75</v>
       </c>
@@ -4649,6 +5049,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.12525918965804775</v>
       </c>
+      <c r="I99" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N99" t="s">
         <v>77</v>
       </c>
@@ -4683,6 +5087,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.12525918965804775</v>
       </c>
+      <c r="I100" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N100" t="s">
         <v>237</v>
       </c>
@@ -4717,6 +5125,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.12525918965804775</v>
       </c>
+      <c r="I101" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N101" t="s">
         <v>90</v>
       </c>
@@ -4751,6 +5163,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.12471639983619622</v>
       </c>
+      <c r="I102" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N102" t="s">
         <v>78</v>
       </c>
@@ -4785,6 +5201,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.11215089896645949</v>
       </c>
+      <c r="I103" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N103" t="s">
         <v>84</v>
       </c>
@@ -4819,6 +5239,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.11018633383586267</v>
       </c>
+      <c r="I104" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N104" t="s">
         <v>80</v>
       </c>
@@ -4853,6 +5277,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.10438265804837311</v>
       </c>
+      <c r="I105" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N105" t="s">
         <v>82</v>
       </c>
@@ -4887,6 +5315,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.10392337435296028</v>
       </c>
+      <c r="I106" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N106" t="s">
         <v>83</v>
       </c>
@@ -4921,6 +5353,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0.10119439414094362</v>
       </c>
+      <c r="I107" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N107" t="s">
         <v>89</v>
       </c>
@@ -4955,6 +5391,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>9.8658897319014977E-2</v>
       </c>
+      <c r="I108" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N108" t="s">
         <v>117</v>
       </c>
@@ -4989,6 +5429,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>9.6950612795328961E-2</v>
       </c>
+      <c r="I109" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N109" t="s">
         <v>133</v>
       </c>
@@ -5023,6 +5467,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>9.6199057657380668E-2</v>
       </c>
+      <c r="I110" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N110" t="s">
         <v>86</v>
       </c>
@@ -5057,6 +5505,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>9.3750930317140171E-2</v>
       </c>
+      <c r="I111" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N111" t="s">
         <v>87</v>
       </c>
@@ -5091,6 +5543,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>9.2065504398665093E-2</v>
       </c>
+      <c r="I112" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N112" t="s">
         <v>88</v>
       </c>
@@ -5125,6 +5581,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>9.1856739082568348E-2</v>
       </c>
+      <c r="I113" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N113" t="s">
         <v>110</v>
       </c>
@@ -5159,6 +5619,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>7.3902921898248167E-2</v>
       </c>
+      <c r="I114" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N114" t="s">
         <v>93</v>
       </c>
@@ -5193,6 +5657,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>7.2859095317764438E-2</v>
       </c>
+      <c r="I115" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N115" t="s">
         <v>91</v>
       </c>
@@ -5227,6 +5695,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>7.1481244231525923E-2</v>
       </c>
+      <c r="I116" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N116" t="s">
         <v>97</v>
       </c>
@@ -5261,6 +5733,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>7.0228652334945435E-2</v>
       </c>
+      <c r="I117" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N117" t="s">
         <v>108</v>
       </c>
@@ -5295,6 +5771,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.7890480794661881E-2</v>
       </c>
+      <c r="I118" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N118" t="s">
         <v>94</v>
       </c>
@@ -5329,6 +5809,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.4174458168139797E-2</v>
       </c>
+      <c r="I119" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N119" t="s">
         <v>95</v>
       </c>
@@ -5363,6 +5847,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.4172784887536249E-2</v>
       </c>
+      <c r="I120" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N120" t="s">
         <v>96</v>
       </c>
@@ -5397,6 +5885,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.3005372397998013E-2</v>
       </c>
+      <c r="I121" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N121" t="s">
         <v>99</v>
       </c>
@@ -5431,6 +5923,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.2658466467839416E-2</v>
       </c>
+      <c r="I122" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N122" t="s">
         <v>26</v>
       </c>
@@ -5465,6 +5961,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.2629594829023874E-2</v>
       </c>
+      <c r="I123" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N123" t="s">
         <v>238</v>
       </c>
@@ -5499,6 +5999,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.2629594829023874E-2</v>
       </c>
+      <c r="I124" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N124" t="s">
         <v>102</v>
       </c>
@@ -5533,6 +6037,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.2466757882468409E-2</v>
       </c>
+      <c r="I125" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N125" t="s">
         <v>103</v>
       </c>
@@ -5567,6 +6075,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.782799255879871E-2</v>
       </c>
+      <c r="I126" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N126" t="s">
         <v>104</v>
       </c>
@@ -5601,6 +6113,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.4738265880566864E-2</v>
       </c>
+      <c r="I127" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N127" t="s">
         <v>106</v>
       </c>
@@ -5635,6 +6151,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.4738265880566864E-2</v>
       </c>
+      <c r="I128" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N128" t="s">
         <v>107</v>
       </c>
@@ -5669,6 +6189,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.2358341277063951E-2</v>
       </c>
+      <c r="I129" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N129" t="s">
         <v>239</v>
       </c>
@@ -5703,6 +6227,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.1189255506922174E-2</v>
       </c>
+      <c r="I130" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N130" t="s">
         <v>109</v>
       </c>
@@ -5737,6 +6265,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.0521206495412592E-2</v>
       </c>
+      <c r="I131" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N131" t="s">
         <v>146</v>
       </c>
@@ -5771,6 +6303,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.0240765616502626E-2</v>
       </c>
+      <c r="I132" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N132" t="s">
         <v>111</v>
       </c>
@@ -5805,6 +6341,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.0103675863219101E-2</v>
       </c>
+      <c r="I133" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N133" t="s">
         <v>122</v>
       </c>
@@ -5839,6 +6379,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.7782952530157401E-2</v>
       </c>
+      <c r="I134" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N134" t="s">
         <v>141</v>
       </c>
@@ -5873,6 +6417,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.7598492070058146E-2</v>
       </c>
+      <c r="I135" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N135" t="s">
         <v>112</v>
       </c>
@@ -5907,6 +6455,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.6972196121767902E-2</v>
       </c>
+      <c r="I136" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N136" t="s">
         <v>113</v>
       </c>
@@ -5941,6 +6493,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.3841447104881484E-2</v>
       </c>
+      <c r="I137" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N137" t="s">
         <v>114</v>
       </c>
@@ -5975,6 +6531,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.3590198001000613E-2</v>
       </c>
+      <c r="I138" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N138" t="s">
         <v>116</v>
       </c>
@@ -6009,6 +6569,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.1753063219349247E-2</v>
       </c>
+      <c r="I139" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N139" t="s">
         <v>240</v>
       </c>
@@ -6043,6 +6607,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.1753063219349247E-2</v>
       </c>
+      <c r="I140" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N140" t="s">
         <v>118</v>
       </c>
@@ -6077,6 +6645,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.0959755018181616E-2</v>
       </c>
+      <c r="I141" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N141" t="s">
         <v>125</v>
       </c>
@@ -6111,6 +6683,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.7995287529607812E-2</v>
       </c>
+      <c r="I142" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N142" t="s">
         <v>119</v>
       </c>
@@ -6145,6 +6721,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.7327238518098223E-2</v>
       </c>
+      <c r="I143" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N143" t="s">
         <v>120</v>
       </c>
@@ -6179,6 +6759,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.5281338420350111E-2</v>
       </c>
+      <c r="I144" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N144" t="s">
         <v>121</v>
       </c>
@@ -6213,6 +6797,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.4989066977814676E-2</v>
       </c>
+      <c r="I145" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N145" t="s">
         <v>123</v>
       </c>
@@ -6247,6 +6835,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.4738548598498578E-2</v>
       </c>
+      <c r="I146" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N146" t="s">
         <v>124</v>
       </c>
@@ -6281,6 +6873,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.2225807500894918E-2</v>
       </c>
+      <c r="I147" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N147" t="s">
         <v>126</v>
       </c>
@@ -6315,6 +6911,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.6972478839699613E-2</v>
       </c>
+      <c r="I148" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N148" t="s">
         <v>127</v>
       </c>
@@ -6349,6 +6949,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.597040532243523E-2</v>
       </c>
+      <c r="I149" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N149" t="s">
         <v>158</v>
       </c>
@@ -6383,6 +6987,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.4383788920099961E-2</v>
       </c>
+      <c r="I150" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N150" t="s">
         <v>241</v>
       </c>
@@ -6417,6 +7025,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.1419321431526164E-2</v>
       </c>
+      <c r="I151" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N151" t="s">
         <v>168</v>
       </c>
@@ -6451,6 +7063,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.096003773611332E-2</v>
       </c>
+      <c r="I152" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N152" t="s">
         <v>162</v>
       </c>
@@ -6485,6 +7101,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.778680493144278E-2</v>
       </c>
+      <c r="I153" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N153" t="s">
         <v>129</v>
       </c>
@@ -6519,6 +7139,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.5991423213010763E-2</v>
       </c>
+      <c r="I154" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N154" t="s">
         <v>130</v>
       </c>
@@ -6553,6 +7177,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.5824410960133366E-2</v>
       </c>
+      <c r="I155" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N155" t="s">
         <v>140</v>
       </c>
@@ -6587,6 +7215,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.5699151770475317E-2</v>
       </c>
+      <c r="I156" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N156" t="s">
         <v>131</v>
       </c>
@@ -6621,6 +7253,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.4822337442868982E-2</v>
       </c>
+      <c r="I157" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N157" t="s">
         <v>160</v>
       </c>
@@ -6655,6 +7291,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.3026955724436967E-2</v>
       </c>
+      <c r="I158" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N158" t="s">
         <v>132</v>
       </c>
@@ -6689,6 +7329,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.2358906712927378E-2</v>
       </c>
+      <c r="I159" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N159" t="s">
         <v>147</v>
       </c>
@@ -6723,6 +7367,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.1732610764637139E-2</v>
       </c>
+      <c r="I160" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N160" t="s">
         <v>242</v>
       </c>
@@ -6757,6 +7405,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.1607351574979092E-2</v>
       </c>
+      <c r="I161" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061614</v>
+      </c>
       <c r="N161" t="s">
         <v>134</v>
       </c>
@@ -6791,6 +7443,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.1315080132443648E-2</v>
       </c>
+      <c r="I162" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061614</v>
+      </c>
       <c r="N162" t="s">
         <v>135</v>
       </c>
@@ -6825,6 +7481,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.0145994362301868E-2</v>
       </c>
+      <c r="I163" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N163" t="s">
         <v>136</v>
       </c>
@@ -6859,6 +7519,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>9.7702167933277229E-3</v>
       </c>
+      <c r="I164" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N164" t="s">
         <v>137</v>
       </c>
@@ -6893,6 +7557,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>8.8934024657213902E-3</v>
       </c>
+      <c r="I165" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N165" t="s">
         <v>138</v>
       </c>
@@ -6927,6 +7595,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>8.3506126438698501E-3</v>
       </c>
+      <c r="I166" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N166" t="s">
         <v>139</v>
       </c>
@@ -6961,6 +7633,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>7.7834390330982104E-3</v>
       </c>
+      <c r="I167" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N167" t="s">
         <v>143</v>
       </c>
@@ -6995,6 +7671,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>7.6724922105096422E-3</v>
       </c>
+      <c r="I168" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N168" t="s">
         <v>176</v>
       </c>
@@ -7029,6 +7709,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>7.4320452530441663E-3</v>
       </c>
+      <c r="I169" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N169" t="s">
         <v>173</v>
       </c>
@@ -7063,6 +7747,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.5969839886571811E-3</v>
       </c>
+      <c r="I170" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N170" t="s">
         <v>142</v>
       </c>
@@ -7097,6 +7785,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.5552309254378327E-3</v>
       </c>
+      <c r="I171" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N171" t="s">
         <v>144</v>
       </c>
@@ -7131,6 +7823,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.9706880403669425E-3</v>
       </c>
+      <c r="I172" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N172" t="s">
         <v>152</v>
       </c>
@@ -7165,6 +7861,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.8036757874895461E-3</v>
       </c>
+      <c r="I173" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061614</v>
+      </c>
       <c r="N173" t="s">
         <v>145</v>
       </c>
@@ -7199,6 +7899,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.4955524287110518E-3</v>
       </c>
+      <c r="I174" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N174" t="s">
         <v>157</v>
       </c>
@@ -7233,6 +7937,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.4866378018041499E-3</v>
       </c>
+      <c r="I175" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N175" t="s">
         <v>148</v>
       </c>
@@ -7267,6 +7975,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.1773798391993066E-3</v>
       </c>
+      <c r="I176" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N176" t="s">
         <v>216</v>
       </c>
@@ -7301,6 +8013,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>5.1356267759799573E-3</v>
       </c>
+      <c r="I177" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N177" t="s">
         <v>149</v>
       </c>
@@ -7335,6 +8051,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.6763430805671167E-3</v>
       </c>
+      <c r="I178" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N178" t="s">
         <v>150</v>
       </c>
@@ -7369,6 +8089,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.1753063219349251E-3</v>
       </c>
+      <c r="I179" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N179" t="s">
         <v>151</v>
       </c>
@@ -7403,6 +8127,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.9784835931026552E-3</v>
       </c>
+      <c r="I180" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N180" t="s">
         <v>243</v>
       </c>
@@ -7437,6 +8165,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.7577756897414325E-3</v>
       </c>
+      <c r="I181" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N181" t="s">
         <v>153</v>
       </c>
@@ -7471,6 +8203,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.7160226265220832E-3</v>
       </c>
+      <c r="I182" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N182" t="s">
         <v>156</v>
       </c>
@@ -7505,6 +8241,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.2984919943285906E-3</v>
       </c>
+      <c r="I183" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N183" t="s">
         <v>165</v>
       </c>
@@ -7539,6 +8279,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>3.0062205517931459E-3</v>
       </c>
+      <c r="I184" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N184" t="s">
         <v>244</v>
       </c>
@@ -7573,6 +8317,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.8132093971606474E-3</v>
       </c>
+      <c r="I185" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N185" t="s">
         <v>154</v>
       </c>
@@ -7607,6 +8355,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.3381715402835583E-3</v>
       </c>
+      <c r="I186" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N186" t="s">
         <v>155</v>
       </c>
@@ -7641,6 +8393,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.8788878448707162E-3</v>
       </c>
+      <c r="I187" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N187" t="s">
         <v>245</v>
       </c>
@@ -7675,6 +8431,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.0438265804837313E-3</v>
       </c>
+      <c r="I188" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N188" t="s">
         <v>246</v>
       </c>
@@ -7709,6 +8469,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>9.112188516990779E-4</v>
       </c>
+      <c r="I189" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N189" t="s">
         <v>247</v>
       </c>
@@ -7743,6 +8507,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>7.9330820116763567E-4</v>
       </c>
+      <c r="I190" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061605</v>
+      </c>
       <c r="N190" t="s">
         <v>248</v>
       </c>
@@ -7777,6 +8545,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>4.5928369541284179E-4</v>
       </c>
+      <c r="I191" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N191" t="s">
         <v>166</v>
       </c>
@@ -7811,6 +8583,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>1.2525918965804775E-4</v>
       </c>
+      <c r="I192" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N192" t="s">
         <v>159</v>
       </c>
@@ -7845,6 +8621,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>2.9965045562455544E-5</v>
       </c>
+      <c r="I193" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N193" t="s">
         <v>161</v>
       </c>
@@ -7879,6 +8659,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>6.5368112732269093E-9</v>
       </c>
+      <c r="I194" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0.21711592874061611</v>
+      </c>
       <c r="N194" t="s">
         <v>203</v>
       </c>
@@ -7892,6 +8676,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I195" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N195" t="s">
         <v>249</v>
       </c>
@@ -7926,6 +8714,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I196" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N196" t="s">
         <v>198</v>
       </c>
@@ -7960,6 +8752,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I197" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N197" t="s">
         <v>190</v>
       </c>
@@ -7994,6 +8790,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I198" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0</v>
+      </c>
       <c r="N198" t="s">
         <v>164</v>
       </c>
@@ -8028,6 +8828,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I199" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0</v>
+      </c>
       <c r="N199" t="s">
         <v>250</v>
       </c>
@@ -8062,6 +8866,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I200" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0</v>
+      </c>
       <c r="N200" t="s">
         <v>167</v>
       </c>
@@ -8096,6 +8904,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I201" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0</v>
+      </c>
       <c r="N201" t="s">
         <v>251</v>
       </c>
@@ -8130,6 +8942,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I202" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0</v>
+      </c>
       <c r="N202" t="s">
         <v>202</v>
       </c>
@@ -8164,6 +8980,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I203" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0</v>
+      </c>
       <c r="N203" t="s">
         <v>172</v>
       </c>
@@ -8198,6 +9018,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I204" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0</v>
+      </c>
       <c r="N204" t="s">
         <v>169</v>
       </c>
@@ -8232,6 +9056,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I205" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0</v>
+      </c>
       <c r="N205" t="s">
         <v>181</v>
       </c>
@@ -8266,6 +9094,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I206" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0</v>
+      </c>
       <c r="N206" t="s">
         <v>170</v>
       </c>
@@ -8300,6 +9132,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I207" s="1">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>0</v>
+      </c>
       <c r="N207" t="s">
         <v>188</v>
       </c>
@@ -8334,6 +9170,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I208" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N208" t="s">
         <v>171</v>
       </c>
@@ -8368,6 +9208,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I209" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N209" t="s">
         <v>182</v>
       </c>
@@ -8402,6 +9246,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I210" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N210" t="s">
         <v>175</v>
       </c>
@@ -8436,6 +9284,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I211" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N211" t="s">
         <v>252</v>
       </c>
@@ -8470,6 +9322,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I212" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N212" t="s">
         <v>174</v>
       </c>
@@ -8504,6 +9360,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I213" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N213" t="s">
         <v>253</v>
       </c>
@@ -8538,6 +9398,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I214" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N214" t="s">
         <v>177</v>
       </c>
@@ -8572,6 +9436,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I215" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N215" t="s">
         <v>178</v>
       </c>
@@ -8606,6 +9474,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I216" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N216" t="s">
         <v>254</v>
       </c>
@@ -8640,6 +9512,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I217" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N217" t="s">
         <v>255</v>
       </c>
@@ -8674,6 +9550,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I218" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N218" t="s">
         <v>180</v>
       </c>
@@ -8708,6 +9588,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I219" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N219" t="s">
         <v>256</v>
       </c>
@@ -8742,6 +9626,10 @@
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
       </c>
+      <c r="I220" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N220" t="s">
         <v>186</v>
       </c>
@@ -8775,6 +9663,10 @@
       <c r="H221" s="1">
         <f>Table1[[#This Row],[% total]]*$K$6</f>
         <v>0</v>
+      </c>
+      <c r="I221" s="1" t="e">
+        <f>(Table1[[#This Row],[Qi distributed]]/Table1[[#This Row],[Balance 26473818]])*52</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="N221" t="s">
         <v>183</v>
